--- a/teams.xlsx
+++ b/teams.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Math\ranking_uni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF72441-B34D-41A6-9C71-99A93DC08CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA7A97-C4D9-4F4A-B407-64A0F33A21BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F60233B-7179-4CD9-A1B3-272BF9E66757}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="213">
   <si>
     <t>team_name</t>
   </si>
@@ -488,6 +501,177 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>/static/logos/ACCA.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Axis Anteaters Blossom.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Axis Anteaters Shadow.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Azure Bears Black.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Azure Bears Golden.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Black Cyber.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Brutal eSports.png</t>
+  </si>
+  <si>
+    <t>/static/logos/CAAP Hellhounds.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Canis.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Canis B.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Overbite B.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Overbite A.png</t>
+  </si>
+  <si>
+    <t>/static/logos/FEI DarkOwls.png</t>
+  </si>
+  <si>
+    <t>/static/logos/FM Alligators.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Furia XV.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Hunter.png</t>
+  </si>
+  <si>
+    <t>/static/logos/IFSP Midas.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Inatel White.png</t>
+  </si>
+  <si>
+    <t>/static/logos/MackLogic Red.png</t>
+  </si>
+  <si>
+    <t>/static/logos/MackLogic White.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Mauá Esports A.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Mauá Esports B.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Pato E-Sports.png</t>
+  </si>
+  <si>
+    <t>/static/logos/PUC Clérigos.png</t>
+  </si>
+  <si>
+    <t>/static/logos/PUC Priests.png</t>
+  </si>
+  <si>
+    <t>/static/logos/PUCC Cardinals.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Raposa E-Sports.png</t>
+  </si>
+  <si>
+    <t>/static/logos/SharkS Ibmec.png</t>
+  </si>
+  <si>
+    <t>/static/logos/STINGS YELLOW.png</t>
+  </si>
+  <si>
+    <t>/static/logos/TOTALE Tuta.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFG Eagles.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFGD Duendes.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFMT Turuna.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Burning Bunnies.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Burning Bunnies Academy.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFU Saints Insane.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFU Saints Ravens.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UnB Black.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UNESA Cyborgs.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Unicamp Tritons Black.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UNIFEI.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Uninassau Griffins.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UNIRV Rushone.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Univap Carrascos.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Univap Carrascos Academy.png</t>
+  </si>
+  <si>
+    <t>/static/logos/USP Stars.png</t>
+  </si>
+  <si>
+    <t>/static/logos/White Cyber.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Wolf Gaming.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Troianos Debug.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Cyber Kongs.png</t>
+  </si>
+  <si>
+    <t>/static/logos/UFMG Fenix.png</t>
+  </si>
+  <si>
+    <t>/static/logos/FSA Hopshots.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Troianos Trojan.png</t>
+  </si>
+  <si>
+    <t>/static/logos/AAICEI Pinguins.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Unicamp Tritons.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Agronomia UFG.png</t>
+  </si>
+  <si>
+    <t>/static/logos/A2EUFF.png</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1535,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1543,7 @@
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,6 +1570,9 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1397,6 +1584,9 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1408,6 +1598,9 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1419,6 +1612,9 @@
       <c r="C5" t="s">
         <v>69</v>
       </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1430,6 +1626,9 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1441,6 +1640,9 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1452,6 +1654,9 @@
       <c r="C8" t="s">
         <v>74</v>
       </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1463,6 +1668,9 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1474,6 +1682,9 @@
       <c r="C10" t="s">
         <v>83</v>
       </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1485,6 +1696,9 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1496,6 +1710,9 @@
       <c r="C12" t="s">
         <v>88</v>
       </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1507,6 +1724,9 @@
       <c r="C13" t="s">
         <v>88</v>
       </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1518,6 +1738,9 @@
       <c r="C14" t="s">
         <v>89</v>
       </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1529,6 +1752,9 @@
       <c r="C15" t="s">
         <v>101</v>
       </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1540,8 +1766,11 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1551,8 +1780,11 @@
       <c r="C17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1562,8 +1794,11 @@
       <c r="C18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1573,8 +1808,11 @@
       <c r="C19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1584,8 +1822,11 @@
       <c r="C20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1595,8 +1836,11 @@
       <c r="C21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1606,8 +1850,11 @@
       <c r="C22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1617,8 +1864,11 @@
       <c r="C23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1628,8 +1878,11 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1639,8 +1892,11 @@
       <c r="C25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1650,8 +1906,11 @@
       <c r="C26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1661,8 +1920,11 @@
       <c r="C27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1672,8 +1934,11 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1683,8 +1948,11 @@
       <c r="C29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1694,8 +1962,11 @@
       <c r="C30" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1705,8 +1976,11 @@
       <c r="C31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1715,6 +1989,9 @@
       </c>
       <c r="C32" t="s">
         <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,6 +2004,9 @@
       <c r="C33" t="s">
         <v>94</v>
       </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1738,6 +2018,9 @@
       <c r="C34" t="s">
         <v>95</v>
       </c>
+      <c r="D34" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1749,6 +2032,9 @@
       <c r="C35" t="s">
         <v>96</v>
       </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1760,6 +2046,9 @@
       <c r="C36" t="s">
         <v>96</v>
       </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1771,6 +2060,9 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1782,6 +2074,9 @@
       <c r="C38" t="s">
         <v>97</v>
       </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1793,6 +2088,9 @@
       <c r="C39" t="s">
         <v>119</v>
       </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1804,6 +2102,9 @@
       <c r="C40" t="s">
         <v>120</v>
       </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1815,6 +2116,9 @@
       <c r="C41" t="s">
         <v>126</v>
       </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1826,6 +2130,9 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1837,6 +2144,9 @@
       <c r="C43" t="s">
         <v>121</v>
       </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
       <c r="J43" t="s">
         <v>155</v>
       </c>
@@ -1851,6 +2161,9 @@
       <c r="C44" t="s">
         <v>122</v>
       </c>
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1862,6 +2175,9 @@
       <c r="C45" t="s">
         <v>123</v>
       </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1873,6 +2189,9 @@
       <c r="C46" t="s">
         <v>123</v>
       </c>
+      <c r="D46" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1884,6 +2203,9 @@
       <c r="C47" t="s">
         <v>137</v>
       </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1895,8 +2217,11 @@
       <c r="C48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1906,8 +2231,11 @@
       <c r="C49" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1917,8 +2245,11 @@
       <c r="C50" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1928,8 +2259,11 @@
       <c r="C51" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1939,8 +2273,11 @@
       <c r="C52" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1950,8 +2287,11 @@
       <c r="C53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1961,8 +2301,11 @@
       <c r="C54" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1972,8 +2315,11 @@
       <c r="C55" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1983,8 +2329,11 @@
       <c r="C56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1994,8 +2343,11 @@
       <c r="C57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2004,6 +2356,9 @@
       </c>
       <c r="C58" t="s">
         <v>154</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Math\ranking_uni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA7A97-C4D9-4F4A-B407-64A0F33A21BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29919F-8651-4377-A03E-F0D0C2A4EF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F60233B-7179-4CD9-A1B3-272BF9E66757}"/>
   </bookViews>
@@ -647,9 +647,6 @@
     <t>/static/logos/Wolf Gaming.png</t>
   </si>
   <si>
-    <t>/static/logos/Troianos Debug.png</t>
-  </si>
-  <si>
     <t>/static/logos/Cyber Kongs.png</t>
   </si>
   <si>
@@ -659,9 +656,6 @@
     <t>/static/logos/FSA Hopshots.png</t>
   </si>
   <si>
-    <t>/static/logos/Troianos Trojan.png</t>
-  </si>
-  <si>
     <t>/static/logos/AAICEI Pinguins.png</t>
   </si>
   <si>
@@ -672,6 +666,12 @@
   </si>
   <si>
     <t>/static/logos/A2EUFF.png</t>
+  </si>
+  <si>
+    <t>/static/logos/Troianos Debug.PNG</t>
+  </si>
+  <si>
+    <t>/static/logos/Troianos Trojan.PNG</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AA5362-047C-4D5C-89A4-8F8E17EA9056}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2246,7 @@
         <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
